--- a/data/trans_camb/P15_2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P15_2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,24</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>1,92</t>
+          <t>0,28</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 1,29</t>
+          <t>0,15; 1,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,12</t>
+          <t>0,0; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,62</t>
+          <t>0,0; 1,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,2</t>
+          <t>-0,65; 0,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,53</t>
+          <t>-0,47; 0,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,0</t>
+          <t>-0,47; 0,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 0,93</t>
+          <t>-0,16; 0,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 3,21</t>
+          <t>-0,19; 0,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 0,67</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-0,17; 0,66</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-0,15; 0,85</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>1,22; 2,86</t>
+          <t>-0,11; 0,8</t>
         </is>
       </c>
     </row>
@@ -807,47 +753,32 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-7,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-14,77%</t>
+          <t>43,59%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>52,78%</t>
+          <t>41,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>30,67%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>422,64%</t>
+          <t>75,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>83,93%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>114,21%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>797,86%</t>
+          <t>117,21%</t>
         </is>
       </c>
     </row>
@@ -875,47 +806,32 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 650,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 408,05</t>
+          <t>-72,21; 689,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-69,33; 581,01</t>
+          <t>-75,29; 717,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-72,57; 615,62</t>
+          <t>-69,2; 842,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>88,37; 2037,22</t>
+          <t>-64,76; 690,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,94; 906,44</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-56,74; 758,4</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-52,96; 944,59</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>214,88; 3519,87</t>
+          <t>-51,97; 966,79</t>
         </is>
       </c>
     </row>
@@ -937,57 +853,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>0,4</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,11</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>0,35</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,18</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,31</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -1005,57 +906,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,92</t>
+          <t>0,0; 1,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,1; 0,95</t>
+          <t>0,11; 0,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,87; 5,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,13</t>
+          <t>0,0; 0,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,23</t>
+          <t>0,12; 0,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 0,85</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0,06; 0,61</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,97; 3,44</t>
+          <t>0,06; 0,55</t>
         </is>
       </c>
     </row>
@@ -1083,45 +969,30 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
@@ -1179,21 +1050,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1213,7 +1069,7 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
@@ -1223,47 +1079,32 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,06</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>0,35</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1122,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,25</t>
+          <t>0,0; 4,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1291,47 +1132,32 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,88</t>
+          <t>-3,38; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 0,0</t>
+          <t>-1,34; 3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,67</t>
+          <t>-0,69; 1,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,66; 1,64</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 2,01</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-0,67; 1,5</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,87</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-0,67; 1,76</t>
         </is>
       </c>
     </row>
@@ -1359,47 +1185,32 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>105,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>113,67%</t>
+          <t>9,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>101,08%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>48,95%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>81,28%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>113,67%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>105,89%</t>
         </is>
       </c>
     </row>
@@ -1455,21 +1266,6 @@
           <t>—; —</t>
         </is>
       </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>-0,01</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,34</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>2,03</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,84</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>0,25</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
           <t>0,27</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>1,93</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 0,66</t>
+          <t>0,07; 0,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 0,76</t>
+          <t>0,13; 0,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 0,98</t>
+          <t>0,11; 0,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,12</t>
+          <t>-0,38; 0,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 0,44</t>
+          <t>-0,2; 0,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,6</t>
+          <t>-0,16; 0,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 0,7</t>
+          <t>-0,12; 0,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,03; 3,03</t>
+          <t>0,01; 0,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 0,4</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>0,03; 0,55</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>0,02; 0,57</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,36; 2,69</t>
+          <t>0,03; 0,63</t>
         </is>
       </c>
     </row>
@@ -1635,47 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-2,4%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>60,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>60,45%</t>
+          <t>73,82%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>71,89%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>603,04%</t>
+          <t>171,31%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>74,86%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>163,32%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>174,52%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>1237,44%</t>
+          <t>176,0%</t>
         </is>
       </c>
     </row>
@@ -1703,59 +1454,51 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,29; 355,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-87,65; 470,09</t>
+          <t>-50,12; 593,6</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-61,31; 451,48</t>
+          <t>-52,58; 515,15</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-60,6; 531,27</t>
+          <t>-59,36; 590,56</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>171,73; 2075,92</t>
+          <t>-20,04; 817,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-63,68; 521,74</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-6,24; 824,85</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-13,2; 782,78</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>449,34; 4773,71</t>
+          <t>-11,74; 1065,93</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
